--- a/data/pca/factorExposure/factorExposure_2014-12-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01107388000377574</v>
+        <v>0.01177245263644856</v>
       </c>
       <c r="C2">
-        <v>-0.03927029571857277</v>
+        <v>0.05781691952686317</v>
       </c>
       <c r="D2">
-        <v>0.1417230563072414</v>
+        <v>-0.06208305918686971</v>
       </c>
       <c r="E2">
-        <v>0.08995220373555804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.1004755851816751</v>
+      </c>
+      <c r="F2">
+        <v>-0.1492446606732688</v>
+      </c>
+      <c r="G2">
+        <v>0.0521483071821465</v>
+      </c>
+      <c r="H2">
+        <v>0.03983682097090561</v>
+      </c>
+      <c r="I2">
+        <v>-0.05470447071749501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03199029524652237</v>
+        <v>0.01803380132728055</v>
       </c>
       <c r="C4">
-        <v>-0.1249132411527007</v>
+        <v>0.1462856672198558</v>
       </c>
       <c r="D4">
-        <v>0.1027387753338645</v>
+        <v>-0.02258903948577069</v>
       </c>
       <c r="E4">
-        <v>0.07985091075223796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.07838660619529006</v>
+      </c>
+      <c r="F4">
+        <v>-0.1030184908215948</v>
+      </c>
+      <c r="G4">
+        <v>-0.06052394606610837</v>
+      </c>
+      <c r="H4">
+        <v>-0.03464856556313229</v>
+      </c>
+      <c r="I4">
+        <v>-0.07580093899193591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.01491970934152697</v>
+        <v>0.02933459646301538</v>
       </c>
       <c r="C6">
-        <v>-0.04788380662320803</v>
+        <v>0.06073843546965975</v>
       </c>
       <c r="D6">
-        <v>0.08542366036653327</v>
+        <v>-0.03569193480667769</v>
       </c>
       <c r="E6">
-        <v>0.03526085506101788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.08886460806581589</v>
+      </c>
+      <c r="F6">
+        <v>-0.05088197990347489</v>
+      </c>
+      <c r="G6">
+        <v>0.04012393468037676</v>
+      </c>
+      <c r="H6">
+        <v>-0.05334312421763947</v>
+      </c>
+      <c r="I6">
+        <v>-0.01793541132423037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.01110541834400499</v>
+        <v>0.0067125968039764</v>
       </c>
       <c r="C7">
-        <v>-0.03652923147879867</v>
+        <v>0.05668822989320173</v>
       </c>
       <c r="D7">
-        <v>0.06935011098726163</v>
+        <v>-0.03543927366728303</v>
       </c>
       <c r="E7">
-        <v>0.01204526369436894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.06998653914996299</v>
+      </c>
+      <c r="F7">
+        <v>0.001494483372651259</v>
+      </c>
+      <c r="G7">
+        <v>-0.02223623642729781</v>
+      </c>
+      <c r="H7">
+        <v>-0.05147868006210975</v>
+      </c>
+      <c r="I7">
+        <v>-0.08066503929407706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.009261717750859757</v>
+        <v>-0.007680384061080904</v>
       </c>
       <c r="C8">
-        <v>-0.05229458081869645</v>
+        <v>0.06225911072397684</v>
       </c>
       <c r="D8">
-        <v>0.08555654723930482</v>
+        <v>-0.01237492355625566</v>
       </c>
       <c r="E8">
-        <v>0.04811159680012206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.06734214976110901</v>
+      </c>
+      <c r="F8">
+        <v>-0.08313746943972977</v>
+      </c>
+      <c r="G8">
+        <v>-0.02980847497632342</v>
+      </c>
+      <c r="H8">
+        <v>0.04303735980788461</v>
+      </c>
+      <c r="I8">
+        <v>-0.03249342843096348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.01864318644407612</v>
+        <v>0.01080211403572395</v>
       </c>
       <c r="C9">
-        <v>-0.1033463056771911</v>
+        <v>0.1173932442724145</v>
       </c>
       <c r="D9">
-        <v>0.09007534022473032</v>
+        <v>-0.02243338819737644</v>
       </c>
       <c r="E9">
-        <v>0.04909463050140062</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.06409704479415529</v>
+      </c>
+      <c r="F9">
+        <v>-0.06113103791265237</v>
+      </c>
+      <c r="G9">
+        <v>-0.009796468765434795</v>
+      </c>
+      <c r="H9">
+        <v>-0.04679986768847393</v>
+      </c>
+      <c r="I9">
+        <v>-0.08223912245016106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.2361623890739087</v>
+        <v>0.2450011270461096</v>
       </c>
       <c r="C10">
-        <v>0.086183507139688</v>
+        <v>-0.07691942474794458</v>
       </c>
       <c r="D10">
-        <v>-0.04233056667501967</v>
+        <v>0.01704114370477722</v>
       </c>
       <c r="E10">
-        <v>0.03527871288209127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02620717471823021</v>
+      </c>
+      <c r="F10">
+        <v>-0.01245246456430485</v>
+      </c>
+      <c r="G10">
+        <v>-0.007458013776708724</v>
+      </c>
+      <c r="H10">
+        <v>-0.02904744989447202</v>
+      </c>
+      <c r="I10">
+        <v>-0.02108049841338384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.006027626318536096</v>
+        <v>0.01142379942729439</v>
       </c>
       <c r="C11">
-        <v>-0.04347714818568219</v>
+        <v>0.06860708531934033</v>
       </c>
       <c r="D11">
-        <v>0.04892273795991333</v>
+        <v>-0.01247465193905724</v>
       </c>
       <c r="E11">
-        <v>0.003885965021100178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.05337045295085996</v>
+      </c>
+      <c r="F11">
+        <v>0.0009270729294987782</v>
+      </c>
+      <c r="G11">
+        <v>-0.01396299339796329</v>
+      </c>
+      <c r="H11">
+        <v>-0.03168014128049351</v>
+      </c>
+      <c r="I11">
+        <v>-0.03835766102201384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01186403912861394</v>
+        <v>0.01393533304322267</v>
       </c>
       <c r="C12">
-        <v>-0.04716832903502157</v>
+        <v>0.05833850315375296</v>
       </c>
       <c r="D12">
-        <v>0.05081442825556301</v>
+        <v>-0.01762023877320331</v>
       </c>
       <c r="E12">
-        <v>-0.009967310430859912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0405651802249348</v>
+      </c>
+      <c r="F12">
+        <v>0.01131654161610472</v>
+      </c>
+      <c r="G12">
+        <v>0.01458800348939396</v>
+      </c>
+      <c r="H12">
+        <v>-0.02682571441123566</v>
+      </c>
+      <c r="I12">
+        <v>-0.04314113196032265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005013902405633775</v>
+        <v>0.002667705097023356</v>
       </c>
       <c r="C13">
-        <v>-0.0516091403562943</v>
+        <v>0.08998501892368355</v>
       </c>
       <c r="D13">
-        <v>0.1283368397814095</v>
+        <v>-0.07949463636931671</v>
       </c>
       <c r="E13">
-        <v>0.02821797021383259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1215038565997829</v>
+      </c>
+      <c r="F13">
+        <v>-0.05561348822526285</v>
+      </c>
+      <c r="G13">
+        <v>0.09614314162670409</v>
+      </c>
+      <c r="H13">
+        <v>-0.08031061417251563</v>
+      </c>
+      <c r="I13">
+        <v>-0.082724894323861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004927020232896503</v>
+        <v>0.007184597360861887</v>
       </c>
       <c r="C14">
-        <v>-0.02084106704013256</v>
+        <v>0.05167904993308867</v>
       </c>
       <c r="D14">
-        <v>0.06017929618078883</v>
+        <v>-0.01848514856544181</v>
       </c>
       <c r="E14">
-        <v>0.002545422759972284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.101364714933302</v>
+      </c>
+      <c r="F14">
+        <v>-0.009926539755477547</v>
+      </c>
+      <c r="G14">
+        <v>0.03207661435281203</v>
+      </c>
+      <c r="H14">
+        <v>-0.08010831221378868</v>
+      </c>
+      <c r="I14">
+        <v>-0.1424844356586615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.003957878196144942</v>
+        <v>-0.003934695516825737</v>
       </c>
       <c r="C15">
-        <v>-0.02879902768088416</v>
+        <v>0.05145077585155314</v>
       </c>
       <c r="D15">
-        <v>0.08258671506921683</v>
+        <v>-0.03159272186471285</v>
       </c>
       <c r="E15">
-        <v>0.02956143346312624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.07582613135240115</v>
+      </c>
+      <c r="F15">
+        <v>-0.01089165655221385</v>
+      </c>
+      <c r="G15">
+        <v>-0.0100012243116101</v>
+      </c>
+      <c r="H15">
+        <v>-0.01120723950824192</v>
+      </c>
+      <c r="I15">
+        <v>-0.05959787066718593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.006010707365892321</v>
+        <v>0.01027461947772378</v>
       </c>
       <c r="C16">
-        <v>-0.04113208389806227</v>
+        <v>0.05894068892220492</v>
       </c>
       <c r="D16">
-        <v>0.04094216224563236</v>
+        <v>-0.01555859756605202</v>
       </c>
       <c r="E16">
-        <v>-0.0003776874014119167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.03882865244566321</v>
+      </c>
+      <c r="F16">
+        <v>0.006730486270600742</v>
+      </c>
+      <c r="G16">
+        <v>0.0009853676449782299</v>
+      </c>
+      <c r="H16">
+        <v>-0.03438448574861711</v>
+      </c>
+      <c r="I16">
+        <v>-0.03554620751240447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.00254263552424932</v>
+        <v>-0.001001993665818995</v>
       </c>
       <c r="C19">
-        <v>-0.002147977495857149</v>
+        <v>0.002601121857176953</v>
       </c>
       <c r="D19">
-        <v>0.02276923001283655</v>
+        <v>-0.007548576280266804</v>
       </c>
       <c r="E19">
-        <v>-0.0007875717736848272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01378888576889336</v>
+      </c>
+      <c r="F19">
+        <v>-7.913195278318144e-05</v>
+      </c>
+      <c r="G19">
+        <v>0.001922451225492738</v>
+      </c>
+      <c r="H19">
+        <v>0.0004358169308184946</v>
+      </c>
+      <c r="I19">
+        <v>-0.01633572615774045</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.004531872343654505</v>
+        <v>0.002920984133545221</v>
       </c>
       <c r="C20">
-        <v>-0.04107939992884205</v>
+        <v>0.06710259706294357</v>
       </c>
       <c r="D20">
-        <v>0.06809175379617888</v>
+        <v>-0.03373565380514989</v>
       </c>
       <c r="E20">
-        <v>0.04293095015362716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.06598308200472186</v>
+      </c>
+      <c r="F20">
+        <v>0.0002161516842136946</v>
+      </c>
+      <c r="G20">
+        <v>-0.01807310876508514</v>
+      </c>
+      <c r="H20">
+        <v>-0.06950364955465863</v>
+      </c>
+      <c r="I20">
+        <v>-0.05907775922551986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.001082167236898874</v>
+        <v>0.00406809732442961</v>
       </c>
       <c r="C21">
-        <v>-0.05201745358918945</v>
+        <v>0.06471707808557235</v>
       </c>
       <c r="D21">
-        <v>0.09508657084250587</v>
+        <v>-0.03777212703483361</v>
       </c>
       <c r="E21">
-        <v>0.08469743329087787</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0819710929931471</v>
+      </c>
+      <c r="F21">
+        <v>-0.0718737781741571</v>
+      </c>
+      <c r="G21">
+        <v>0.08755391748098673</v>
+      </c>
+      <c r="H21">
+        <v>-0.05953743373357992</v>
+      </c>
+      <c r="I21">
+        <v>-0.1621358700971042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.007002082699824204</v>
+        <v>-0.01324465045784545</v>
       </c>
       <c r="C22">
-        <v>-0.05960652566359256</v>
+        <v>0.1042335948229067</v>
       </c>
       <c r="D22">
-        <v>0.2128131933952551</v>
+        <v>-0.1444414732586115</v>
       </c>
       <c r="E22">
-        <v>0.20814404102958</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.1888363214266157</v>
+      </c>
+      <c r="F22">
+        <v>-0.3143454656310339</v>
+      </c>
+      <c r="G22">
+        <v>-0.1270329946796898</v>
+      </c>
+      <c r="H22">
+        <v>0.2458663742100329</v>
+      </c>
+      <c r="I22">
+        <v>0.3998546890632561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.007277334281269333</v>
+        <v>-0.009916162879414544</v>
       </c>
       <c r="C23">
-        <v>-0.0609133654454555</v>
+        <v>0.1075438870539878</v>
       </c>
       <c r="D23">
-        <v>0.212427966254318</v>
+        <v>-0.1468978122058449</v>
       </c>
       <c r="E23">
-        <v>0.2071678033952375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.1859938085909888</v>
+      </c>
+      <c r="F23">
+        <v>-0.3081516822193369</v>
+      </c>
+      <c r="G23">
+        <v>-0.1208175041331696</v>
+      </c>
+      <c r="H23">
+        <v>0.2338994577279287</v>
+      </c>
+      <c r="I23">
+        <v>0.3739113201277074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.006321022053374497</v>
+        <v>0.01245656943629101</v>
       </c>
       <c r="C24">
-        <v>-0.06425121046425419</v>
+        <v>0.07502390899352812</v>
       </c>
       <c r="D24">
-        <v>0.05607072806123147</v>
+        <v>-0.009067871991256098</v>
       </c>
       <c r="E24">
-        <v>-0.01446617796113806</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05198633618712012</v>
+      </c>
+      <c r="F24">
+        <v>0.006785451056402253</v>
+      </c>
+      <c r="G24">
+        <v>-0.007030291025993696</v>
+      </c>
+      <c r="H24">
+        <v>-0.02987043613947175</v>
+      </c>
+      <c r="I24">
+        <v>-0.057856131923775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01206090627738462</v>
+        <v>0.01742198662708246</v>
       </c>
       <c r="C25">
-        <v>-0.05642675888184537</v>
+        <v>0.06951488657025731</v>
       </c>
       <c r="D25">
-        <v>0.04580190847160927</v>
+        <v>-0.0114746712476766</v>
       </c>
       <c r="E25">
-        <v>0.0001576415729902748</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03929222381677028</v>
+      </c>
+      <c r="F25">
+        <v>0.001699863714354302</v>
+      </c>
+      <c r="G25">
+        <v>-0.009044644921217716</v>
+      </c>
+      <c r="H25">
+        <v>-0.03192465724154247</v>
+      </c>
+      <c r="I25">
+        <v>-0.03436681285252437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.003085270489961693</v>
+        <v>0.01673910567067453</v>
       </c>
       <c r="C26">
-        <v>-0.03099372467064281</v>
+        <v>0.05196975121216779</v>
       </c>
       <c r="D26">
-        <v>0.05633152631079091</v>
+        <v>0.006896861209768377</v>
       </c>
       <c r="E26">
-        <v>0.0102670926352683</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.08165899600143797</v>
+      </c>
+      <c r="F26">
+        <v>-0.02727105276706749</v>
+      </c>
+      <c r="G26">
+        <v>0.002449302496714378</v>
+      </c>
+      <c r="H26">
+        <v>-0.0464014907720936</v>
+      </c>
+      <c r="I26">
+        <v>-0.12539937713602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.3127649523332615</v>
+        <v>0.3123565407305689</v>
       </c>
       <c r="C28">
-        <v>0.1069606392572774</v>
+        <v>-0.09976121331261323</v>
       </c>
       <c r="D28">
-        <v>-0.04392126036911359</v>
+        <v>0.007755440993868896</v>
       </c>
       <c r="E28">
-        <v>0.05016005774293569</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04401982748683417</v>
+      </c>
+      <c r="F28">
+        <v>-0.07365141289623302</v>
+      </c>
+      <c r="G28">
+        <v>-0.03957004241431484</v>
+      </c>
+      <c r="H28">
+        <v>0.007032109450232882</v>
+      </c>
+      <c r="I28">
+        <v>-0.05797287836986143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0006402907036649315</v>
+        <v>0.004671669752460797</v>
       </c>
       <c r="C29">
-        <v>-0.02766061308507943</v>
+        <v>0.05847455089765065</v>
       </c>
       <c r="D29">
-        <v>0.07067595486180987</v>
+        <v>-0.02919043938061736</v>
       </c>
       <c r="E29">
-        <v>0.01971511930131204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.10960449793949</v>
+      </c>
+      <c r="F29">
+        <v>-0.01356415997488345</v>
+      </c>
+      <c r="G29">
+        <v>0.04602956902774806</v>
+      </c>
+      <c r="H29">
+        <v>-0.1190410003766598</v>
+      </c>
+      <c r="I29">
+        <v>-0.1750028583377381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02129187781110881</v>
+        <v>0.02026914134521747</v>
       </c>
       <c r="C30">
-        <v>-0.1043206417341684</v>
+        <v>0.1272673799997454</v>
       </c>
       <c r="D30">
-        <v>0.1493149374085651</v>
+        <v>-0.04259205527602992</v>
       </c>
       <c r="E30">
-        <v>0.04779023199666828</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.1182084449851185</v>
+      </c>
+      <c r="F30">
+        <v>-0.04541806649484001</v>
+      </c>
+      <c r="G30">
+        <v>-0.02195552645282866</v>
+      </c>
+      <c r="H30">
+        <v>-0.0002821268618018065</v>
+      </c>
+      <c r="I30">
+        <v>-0.02785427435841665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.003343280718056419</v>
+        <v>0.007971792421532415</v>
       </c>
       <c r="C31">
-        <v>-0.08688764090484448</v>
+        <v>0.09656940525876023</v>
       </c>
       <c r="D31">
-        <v>0.03122509121797484</v>
+        <v>0.005260656174548975</v>
       </c>
       <c r="E31">
-        <v>-0.0278970844746554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02731795890937901</v>
+      </c>
+      <c r="F31">
+        <v>-0.004902357597442887</v>
+      </c>
+      <c r="G31">
+        <v>0.0009435301978003952</v>
+      </c>
+      <c r="H31">
+        <v>0.01641869993369811</v>
+      </c>
+      <c r="I31">
+        <v>-0.06184552582726629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01634573720711572</v>
+        <v>0.01775988332796169</v>
       </c>
       <c r="C32">
-        <v>-0.05876598004390607</v>
+        <v>0.06564245129053436</v>
       </c>
       <c r="D32">
-        <v>0.1082646389681032</v>
+        <v>-0.03108494203996173</v>
       </c>
       <c r="E32">
-        <v>0.09663382855172638</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.06420325927233925</v>
+      </c>
+      <c r="F32">
+        <v>-0.1124017499605237</v>
+      </c>
+      <c r="G32">
+        <v>0.03420217278454052</v>
+      </c>
+      <c r="H32">
+        <v>-0.03658757269922755</v>
+      </c>
+      <c r="I32">
+        <v>-0.07713130194640037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.0002215044595967362</v>
+        <v>0.007831686238523615</v>
       </c>
       <c r="C33">
-        <v>-0.06318662599479412</v>
+        <v>0.09350632695737678</v>
       </c>
       <c r="D33">
-        <v>0.08709529235313807</v>
+        <v>-0.03720640097664894</v>
       </c>
       <c r="E33">
-        <v>0.006551920496460327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.08405701949145961</v>
+      </c>
+      <c r="F33">
+        <v>-0.007424588857657745</v>
+      </c>
+      <c r="G33">
+        <v>1.454547670213694e-05</v>
+      </c>
+      <c r="H33">
+        <v>-0.03279904678884154</v>
+      </c>
+      <c r="I33">
+        <v>-0.05838175623500357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.001108158834076245</v>
+        <v>0.01069232502184195</v>
       </c>
       <c r="C34">
-        <v>-0.04979909522505226</v>
+        <v>0.05577047679335823</v>
       </c>
       <c r="D34">
-        <v>0.05471459263991001</v>
+        <v>-0.008806846962334936</v>
       </c>
       <c r="E34">
-        <v>-0.03280619027089925</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0429173242354301</v>
+      </c>
+      <c r="F34">
+        <v>0.02282880997443935</v>
+      </c>
+      <c r="G34">
+        <v>0.006714663484140826</v>
+      </c>
+      <c r="H34">
+        <v>-0.01247561671543394</v>
+      </c>
+      <c r="I34">
+        <v>-0.02069646593960406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.0009579397167925163</v>
+        <v>0.005986060732209873</v>
       </c>
       <c r="C35">
-        <v>-0.00274889949103822</v>
+        <v>0.02656837003522684</v>
       </c>
       <c r="D35">
-        <v>0.009518195298891613</v>
+        <v>-0.01233744225962679</v>
       </c>
       <c r="E35">
-        <v>0.002749333463849833</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.03900838087704913</v>
+      </c>
+      <c r="F35">
+        <v>-0.01129742029584418</v>
+      </c>
+      <c r="G35">
+        <v>0.009030786645739636</v>
+      </c>
+      <c r="H35">
+        <v>-0.06725455133549238</v>
+      </c>
+      <c r="I35">
+        <v>-0.09847782702526459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.003434636128746903</v>
+        <v>0.009638534635458806</v>
       </c>
       <c r="C36">
-        <v>-0.03115331419803903</v>
+        <v>0.04391092127685532</v>
       </c>
       <c r="D36">
-        <v>0.04557499939662283</v>
+        <v>-0.001841165450960354</v>
       </c>
       <c r="E36">
-        <v>0.02026450925303979</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.06493374562915291</v>
+      </c>
+      <c r="F36">
+        <v>-0.02933760699513627</v>
+      </c>
+      <c r="G36">
+        <v>0.001790604980740306</v>
+      </c>
+      <c r="H36">
+        <v>-0.03918323739664539</v>
+      </c>
+      <c r="I36">
+        <v>-0.06938259225055973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.004800381601275728</v>
+        <v>0.005790000663453607</v>
       </c>
       <c r="C38">
-        <v>-0.01619393268804821</v>
+        <v>0.04505493438322176</v>
       </c>
       <c r="D38">
-        <v>0.06458324574188049</v>
+        <v>-0.02750964060697833</v>
       </c>
       <c r="E38">
-        <v>-0.0005119605961334799</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.07705023534971128</v>
+      </c>
+      <c r="F38">
+        <v>-0.01035756086973306</v>
+      </c>
+      <c r="G38">
+        <v>-0.0495081533549632</v>
+      </c>
+      <c r="H38">
+        <v>0.001728542082191313</v>
+      </c>
+      <c r="I38">
+        <v>-0.07159787388253108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.009265360474469317</v>
+        <v>0.01053713621858501</v>
       </c>
       <c r="C39">
-        <v>-0.0791296632577624</v>
+        <v>0.1097138706460763</v>
       </c>
       <c r="D39">
-        <v>0.1151576214276689</v>
+        <v>-0.02299283618589188</v>
       </c>
       <c r="E39">
-        <v>0.005623062642100285</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.09580996349612247</v>
+      </c>
+      <c r="F39">
+        <v>0.01397527796328946</v>
+      </c>
+      <c r="G39">
+        <v>0.008754033384230506</v>
+      </c>
+      <c r="H39">
+        <v>-0.03070270530957582</v>
+      </c>
+      <c r="I39">
+        <v>-0.05357262366910146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.00257951988484205</v>
+        <v>0.01069263308783943</v>
       </c>
       <c r="C40">
-        <v>-0.0147785886205965</v>
+        <v>0.04852808068372248</v>
       </c>
       <c r="D40">
-        <v>0.0916472787397881</v>
+        <v>-0.05404246367214523</v>
       </c>
       <c r="E40">
-        <v>-0.008506351414975183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.121790726729672</v>
+      </c>
+      <c r="F40">
+        <v>0.005224940335463601</v>
+      </c>
+      <c r="G40">
+        <v>0.02277466929413365</v>
+      </c>
+      <c r="H40">
+        <v>-0.04753153244401385</v>
+      </c>
+      <c r="I40">
+        <v>-0.002567307790619021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.00621010792223846</v>
+        <v>0.01690881164166946</v>
       </c>
       <c r="C41">
-        <v>-0.0248259912674148</v>
+        <v>0.04589524079736113</v>
       </c>
       <c r="D41">
-        <v>0.01830450619973662</v>
+        <v>-0.01020139209462454</v>
       </c>
       <c r="E41">
-        <v>-0.02956414156739988</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01963949564877147</v>
+      </c>
+      <c r="F41">
+        <v>0.0173236268572985</v>
+      </c>
+      <c r="G41">
+        <v>-0.006379362195134093</v>
+      </c>
+      <c r="H41">
+        <v>-0.001701795455846967</v>
+      </c>
+      <c r="I41">
+        <v>-0.0402424299479542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005275287635344625</v>
+        <v>0.008609970959068304</v>
       </c>
       <c r="C43">
-        <v>-0.01888051408738317</v>
+        <v>0.03846041621651677</v>
       </c>
       <c r="D43">
-        <v>0.03538822937962977</v>
+        <v>-0.007120267257908668</v>
       </c>
       <c r="E43">
-        <v>-0.01807901368846451</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.04365978251605278</v>
+      </c>
+      <c r="F43">
+        <v>0.008445509288972392</v>
+      </c>
+      <c r="G43">
+        <v>-0.01410556798378283</v>
+      </c>
+      <c r="H43">
+        <v>-0.01777113944314033</v>
+      </c>
+      <c r="I43">
+        <v>-0.05228472690189383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01659486921519682</v>
+        <v>0.006785357495438509</v>
       </c>
       <c r="C44">
-        <v>-0.05870487938589768</v>
+        <v>0.07884663566319892</v>
       </c>
       <c r="D44">
-        <v>0.08972726125180341</v>
+        <v>-0.01976703311732619</v>
       </c>
       <c r="E44">
-        <v>0.05840605549154308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.09937220167643414</v>
+      </c>
+      <c r="F44">
+        <v>-0.03804444241328069</v>
+      </c>
+      <c r="G44">
+        <v>-0.01044233484137146</v>
+      </c>
+      <c r="H44">
+        <v>0.004326335706270607</v>
+      </c>
+      <c r="I44">
+        <v>-0.03827452630902021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.001923009556050743</v>
+        <v>-0.0008576222038288166</v>
       </c>
       <c r="C46">
-        <v>-0.03527480030232814</v>
+        <v>0.05293237079114837</v>
       </c>
       <c r="D46">
-        <v>0.07067718510759483</v>
+        <v>-0.01426399087997369</v>
       </c>
       <c r="E46">
-        <v>0.0149403261848972</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.08308281260799401</v>
+      </c>
+      <c r="F46">
+        <v>-0.009427308926162992</v>
+      </c>
+      <c r="G46">
+        <v>0.003047553369695677</v>
+      </c>
+      <c r="H46">
+        <v>-0.07382822349641706</v>
+      </c>
+      <c r="I46">
+        <v>-0.109926299220364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03107512077540879</v>
+        <v>0.0257994532320331</v>
       </c>
       <c r="C47">
-        <v>-0.1182115196183566</v>
+        <v>0.1131807495607617</v>
       </c>
       <c r="D47">
-        <v>0.0377364576463755</v>
+        <v>0.01142100102233358</v>
       </c>
       <c r="E47">
-        <v>-0.02792964716517282</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01270398359457081</v>
+      </c>
+      <c r="F47">
+        <v>0.00371394551142626</v>
+      </c>
+      <c r="G47">
+        <v>-0.01248895270421103</v>
+      </c>
+      <c r="H47">
+        <v>-0.005163409055744858</v>
+      </c>
+      <c r="I47">
+        <v>-0.08472914324237171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.007893521423414984</v>
+        <v>0.01472707153982579</v>
       </c>
       <c r="C48">
-        <v>-0.03712642311993087</v>
+        <v>0.05117348893050973</v>
       </c>
       <c r="D48">
-        <v>0.04590879297865204</v>
+        <v>0.008555561218106992</v>
       </c>
       <c r="E48">
-        <v>0.009272853085644694</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.0727939984818935</v>
+      </c>
+      <c r="F48">
+        <v>-0.03747031262958457</v>
+      </c>
+      <c r="G48">
+        <v>-0.003837244333062294</v>
+      </c>
+      <c r="H48">
+        <v>-0.05243082501664039</v>
+      </c>
+      <c r="I48">
+        <v>-0.1218232947369154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.003874926358950814</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.007454729742500266</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.007429971692790045</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.006852268378537629</v>
+      </c>
+      <c r="F49">
+        <v>0.01496905004232089</v>
+      </c>
+      <c r="G49">
+        <v>0.00722683204995401</v>
+      </c>
+      <c r="H49">
+        <v>-0.01333995484758772</v>
+      </c>
+      <c r="I49">
+        <v>0.00810298611491231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.008221586097736508</v>
+        <v>0.01075968711193705</v>
       </c>
       <c r="C50">
-        <v>-0.05302223426473057</v>
+        <v>0.07190078079329344</v>
       </c>
       <c r="D50">
-        <v>0.04433230219074288</v>
+        <v>-0.01452614017441389</v>
       </c>
       <c r="E50">
-        <v>-0.005981976835975788</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.03337176077949517</v>
+      </c>
+      <c r="F50">
+        <v>-0.01168398617142615</v>
+      </c>
+      <c r="G50">
+        <v>-0.01133592062350126</v>
+      </c>
+      <c r="H50">
+        <v>-0.0006609502753187832</v>
+      </c>
+      <c r="I50">
+        <v>-0.05707494887389895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-7.666309429578362e-05</v>
+        <v>-0.006039281890875149</v>
       </c>
       <c r="C51">
-        <v>-0.01784479472206103</v>
+        <v>0.02832443476092893</v>
       </c>
       <c r="D51">
-        <v>0.06931471022769371</v>
+        <v>-0.01689861058833903</v>
       </c>
       <c r="E51">
-        <v>0.05296834193960813</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.05707192305315685</v>
+      </c>
+      <c r="F51">
+        <v>-0.04548737656418173</v>
+      </c>
+      <c r="G51">
+        <v>0.008164997414325558</v>
+      </c>
+      <c r="H51">
+        <v>-0.03054038143030627</v>
+      </c>
+      <c r="I51">
+        <v>-0.1047466666372608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.06896272389015425</v>
+        <v>0.05847097310911591</v>
       </c>
       <c r="C53">
-        <v>-0.1604981249386316</v>
+        <v>0.1608554191014847</v>
       </c>
       <c r="D53">
-        <v>-0.003600868494916162</v>
+        <v>0.04880275534319151</v>
       </c>
       <c r="E53">
-        <v>-0.04158006077395879</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.0444763290974069</v>
+      </c>
+      <c r="F53">
+        <v>0.02214958491905312</v>
+      </c>
+      <c r="G53">
+        <v>-0.01163274078662729</v>
+      </c>
+      <c r="H53">
+        <v>0.03902511108194245</v>
+      </c>
+      <c r="I53">
+        <v>-0.02466864295787475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.00705044428132154</v>
+        <v>0.01406366141169849</v>
       </c>
       <c r="C54">
-        <v>-0.02776476520922488</v>
+        <v>0.05252155036123114</v>
       </c>
       <c r="D54">
-        <v>0.08151683399769336</v>
+        <v>-0.04399583461254782</v>
       </c>
       <c r="E54">
-        <v>0.01971025228485565</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.05586897031073878</v>
+      </c>
+      <c r="F54">
+        <v>-0.007496205397067293</v>
+      </c>
+      <c r="G54">
+        <v>-0.009123852577434619</v>
+      </c>
+      <c r="H54">
+        <v>-0.01927182429882176</v>
+      </c>
+      <c r="I54">
+        <v>-0.09292773648746337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.0490574404874503</v>
+        <v>0.03603762545098645</v>
       </c>
       <c r="C55">
-        <v>-0.1165266655047666</v>
+        <v>0.1134133692676604</v>
       </c>
       <c r="D55">
-        <v>-0.001449609744276563</v>
+        <v>0.05040560564960585</v>
       </c>
       <c r="E55">
-        <v>-0.05398144285357178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02411237396209518</v>
+      </c>
+      <c r="F55">
+        <v>0.03078224784220628</v>
+      </c>
+      <c r="G55">
+        <v>-0.0002405996902131464</v>
+      </c>
+      <c r="H55">
+        <v>0.04412105910809102</v>
+      </c>
+      <c r="I55">
+        <v>-0.0339957103903562</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.07558918373615503</v>
+        <v>0.05494202793029385</v>
       </c>
       <c r="C56">
-        <v>-0.1734860057318441</v>
+        <v>0.1818015505645537</v>
       </c>
       <c r="D56">
-        <v>0.0278964094573005</v>
+        <v>0.05044348696261156</v>
       </c>
       <c r="E56">
-        <v>-0.09909769380373575</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03683272691013745</v>
+      </c>
+      <c r="F56">
+        <v>0.05714826151159148</v>
+      </c>
+      <c r="G56">
+        <v>-0.01101464364239815</v>
+      </c>
+      <c r="H56">
+        <v>0.1274636891822648</v>
+      </c>
+      <c r="I56">
+        <v>-0.03570588584627521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.0111351065948243</v>
+        <v>0.008367083391758767</v>
       </c>
       <c r="C58">
-        <v>-0.07784891114092517</v>
+        <v>0.1234434318536248</v>
       </c>
       <c r="D58">
-        <v>0.233333939966938</v>
+        <v>-0.1237122418794375</v>
       </c>
       <c r="E58">
-        <v>0.2188896744123809</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.170308097094873</v>
+      </c>
+      <c r="F58">
+        <v>-0.2696575221678562</v>
+      </c>
+      <c r="G58">
+        <v>-0.06584878575514919</v>
+      </c>
+      <c r="H58">
+        <v>0.1062387345940872</v>
+      </c>
+      <c r="I58">
+        <v>0.02929204825034749</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.2460426342201452</v>
+        <v>0.2705500743799716</v>
       </c>
       <c r="C59">
-        <v>0.06022363837347533</v>
+        <v>-0.04793750105882941</v>
       </c>
       <c r="D59">
-        <v>0.05054754684145275</v>
+        <v>-0.01954635193262193</v>
       </c>
       <c r="E59">
-        <v>0.05247006082341828</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02824658587609669</v>
+      </c>
+      <c r="F59">
+        <v>-0.03679708940428968</v>
+      </c>
+      <c r="G59">
+        <v>0.01907781278854514</v>
+      </c>
+      <c r="H59">
+        <v>-0.004376017971210871</v>
+      </c>
+      <c r="I59">
+        <v>0.02768049765329116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1286223886294686</v>
+        <v>0.1468849377559232</v>
       </c>
       <c r="C60">
-        <v>-0.1225472820461117</v>
+        <v>0.1521701913103113</v>
       </c>
       <c r="D60">
-        <v>0.08306711388745301</v>
+        <v>-0.02332477384607037</v>
       </c>
       <c r="E60">
-        <v>-0.1226220328502075</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.08603073618420824</v>
+      </c>
+      <c r="F60">
+        <v>0.2295407416483381</v>
+      </c>
+      <c r="G60">
+        <v>0.1088808890925787</v>
+      </c>
+      <c r="H60">
+        <v>-0.1363413320146281</v>
+      </c>
+      <c r="I60">
+        <v>0.3098686557758513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.01406741082923</v>
+        <v>0.01679296835535992</v>
       </c>
       <c r="C61">
-        <v>-0.06500181684438108</v>
+        <v>0.09315246259456487</v>
       </c>
       <c r="D61">
-        <v>0.07501887632587281</v>
+        <v>-0.01230945714868882</v>
       </c>
       <c r="E61">
-        <v>-0.01956681819104808</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.07455719113626842</v>
+      </c>
+      <c r="F61">
+        <v>0.02685072327024448</v>
+      </c>
+      <c r="G61">
+        <v>-0.003780142474588913</v>
+      </c>
+      <c r="H61">
+        <v>-0.02567205399930285</v>
+      </c>
+      <c r="I61">
+        <v>-0.06165905588774746</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0007201543341417105</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0008435884778985725</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.0007548898324765874</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.0008325718406378944</v>
+      </c>
+      <c r="F62">
+        <v>-0.003027630044635005</v>
+      </c>
+      <c r="G62">
+        <v>-0.0005580458794818352</v>
+      </c>
+      <c r="H62">
+        <v>-0.0004415631786934166</v>
+      </c>
+      <c r="I62">
+        <v>-0.003935674411983716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.002838847500755078</v>
+        <v>0.01640253490336988</v>
       </c>
       <c r="C63">
-        <v>-0.04641997934742264</v>
+        <v>0.06584921169748502</v>
       </c>
       <c r="D63">
-        <v>0.06268738554800728</v>
+        <v>-0.001167080132748459</v>
       </c>
       <c r="E63">
-        <v>-0.001839942107097143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.07310783127761</v>
+      </c>
+      <c r="F63">
+        <v>0.001660541570840327</v>
+      </c>
+      <c r="G63">
+        <v>0.004338455007466126</v>
+      </c>
+      <c r="H63">
+        <v>-0.03209988346899349</v>
+      </c>
+      <c r="I63">
+        <v>-0.08117386657660665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.01975980839098052</v>
+        <v>0.0153971257254704</v>
       </c>
       <c r="C64">
-        <v>-0.1173271765365981</v>
+        <v>0.111185981478963</v>
       </c>
       <c r="D64">
-        <v>0.02834883851583201</v>
+        <v>0.01205523364788627</v>
       </c>
       <c r="E64">
-        <v>-0.03218433777394653</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02549499461077243</v>
+      </c>
+      <c r="F64">
+        <v>-0.008504157175741245</v>
+      </c>
+      <c r="G64">
+        <v>-0.01657629769694529</v>
+      </c>
+      <c r="H64">
+        <v>-0.05683022895502623</v>
+      </c>
+      <c r="I64">
+        <v>0.02190251862104941</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.01333490890326819</v>
+        <v>0.02218932920923378</v>
       </c>
       <c r="C65">
-        <v>-0.03735786293513267</v>
+        <v>0.0666965967272614</v>
       </c>
       <c r="D65">
-        <v>0.0896183327986359</v>
+        <v>-0.05390602392203197</v>
       </c>
       <c r="E65">
-        <v>0.01234429955203165</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.09849380627040598</v>
+      </c>
+      <c r="F65">
+        <v>0.005680286228837236</v>
+      </c>
+      <c r="G65">
+        <v>-0.001580355087292842</v>
+      </c>
+      <c r="H65">
+        <v>-0.08926636170840337</v>
+      </c>
+      <c r="I65">
+        <v>0.03390767176620078</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.008573697871342876</v>
+        <v>0.00971916877673925</v>
       </c>
       <c r="C66">
-        <v>-0.09495666161796495</v>
+        <v>0.1332958044042361</v>
       </c>
       <c r="D66">
-        <v>0.1483093255923136</v>
+        <v>-0.05476230888317051</v>
       </c>
       <c r="E66">
-        <v>0.02344453748014213</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.1067253223313473</v>
+      </c>
+      <c r="F66">
+        <v>-0.002059215820604754</v>
+      </c>
+      <c r="G66">
+        <v>-0.001772489038466089</v>
+      </c>
+      <c r="H66">
+        <v>-0.01015773600934428</v>
+      </c>
+      <c r="I66">
+        <v>-0.05322585613998916</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.01700295627542278</v>
+        <v>0.01721273257233004</v>
       </c>
       <c r="C67">
-        <v>-0.02041459814094587</v>
+        <v>0.04453027318169883</v>
       </c>
       <c r="D67">
-        <v>0.0311948769767693</v>
+        <v>-0.004252286394230745</v>
       </c>
       <c r="E67">
-        <v>-0.04473092742527089</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.0610911496852445</v>
+      </c>
+      <c r="F67">
+        <v>0.03216083675517208</v>
+      </c>
+      <c r="G67">
+        <v>-0.04115026448357807</v>
+      </c>
+      <c r="H67">
+        <v>-0.005998778916099752</v>
+      </c>
+      <c r="I67">
+        <v>-0.05146893017012121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2480185369989039</v>
+        <v>0.281993949721468</v>
       </c>
       <c r="C68">
-        <v>0.06744684074017313</v>
+        <v>-0.05520886884711615</v>
       </c>
       <c r="D68">
-        <v>0.02324946677122881</v>
+        <v>-0.03683885792792857</v>
       </c>
       <c r="E68">
-        <v>0.05349365417371432</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01387758807695968</v>
+      </c>
+      <c r="F68">
+        <v>-0.05484122889992544</v>
+      </c>
+      <c r="G68">
+        <v>-0.01136695616913369</v>
+      </c>
+      <c r="H68">
+        <v>0.04200977606350365</v>
+      </c>
+      <c r="I68">
+        <v>0.02058572504588151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.0279892232728321</v>
+        <v>0.01380570291893375</v>
       </c>
       <c r="C69">
-        <v>-0.1209538129759939</v>
+        <v>0.1003162912136829</v>
       </c>
       <c r="D69">
-        <v>0.04841662293183008</v>
+        <v>0.02614786200856943</v>
       </c>
       <c r="E69">
-        <v>-0.05459704187798419</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0221330347728104</v>
+      </c>
+      <c r="F69">
+        <v>0.01937762534955913</v>
+      </c>
+      <c r="G69">
+        <v>-0.008949682890646571</v>
+      </c>
+      <c r="H69">
+        <v>0.008042692950015735</v>
+      </c>
+      <c r="I69">
+        <v>-0.0489330564589798</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2608707605530739</v>
+        <v>0.2697019465849475</v>
       </c>
       <c r="C71">
-        <v>0.08784036325664132</v>
+        <v>-0.07404448669597015</v>
       </c>
       <c r="D71">
-        <v>0.02114723447426985</v>
+        <v>-0.0188806140423209</v>
       </c>
       <c r="E71">
-        <v>0.03199782506199756</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.01912168105850787</v>
+      </c>
+      <c r="F71">
+        <v>-0.02907707761279554</v>
+      </c>
+      <c r="G71">
+        <v>-0.03016407486243206</v>
+      </c>
+      <c r="H71">
+        <v>-0.007989248519314139</v>
+      </c>
+      <c r="I71">
+        <v>-0.06228502190900656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.06729588561847635</v>
+        <v>0.06114917653542794</v>
       </c>
       <c r="C72">
-        <v>-0.127731191212311</v>
+        <v>0.1394991988995445</v>
       </c>
       <c r="D72">
-        <v>0.1054832411820061</v>
+        <v>-0.01269322131580245</v>
       </c>
       <c r="E72">
-        <v>-0.0558684038514491</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.05815569360556233</v>
+      </c>
+      <c r="F72">
+        <v>0.0485313308467877</v>
+      </c>
+      <c r="G72">
+        <v>0.009237965567130763</v>
+      </c>
+      <c r="H72">
+        <v>-0.004516849257064942</v>
+      </c>
+      <c r="I72">
+        <v>0.04013388323868847</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1107180784478629</v>
+        <v>0.1454066292036565</v>
       </c>
       <c r="C73">
-        <v>-0.1134643185615215</v>
+        <v>0.1717738777981859</v>
       </c>
       <c r="D73">
-        <v>0.1236958267422073</v>
+        <v>-0.03265037654698628</v>
       </c>
       <c r="E73">
-        <v>-0.166806350411076</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.15832468134884</v>
+      </c>
+      <c r="F73">
+        <v>0.3540323852626333</v>
+      </c>
+      <c r="G73">
+        <v>0.127363853286599</v>
+      </c>
+      <c r="H73">
+        <v>-0.2276482924354151</v>
+      </c>
+      <c r="I73">
+        <v>0.2878386675695576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.05013513639982814</v>
+        <v>0.04211867862303237</v>
       </c>
       <c r="C74">
-        <v>-0.1273770950970368</v>
+        <v>0.1242940224839085</v>
       </c>
       <c r="D74">
-        <v>-0.05172376875086517</v>
+        <v>0.06250176631400979</v>
       </c>
       <c r="E74">
-        <v>-0.03406396921423507</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0417867283049303</v>
+      </c>
+      <c r="F74">
+        <v>0.007707572821504218</v>
+      </c>
+      <c r="G74">
+        <v>-0.01520717762469325</v>
+      </c>
+      <c r="H74">
+        <v>0.01426270976206236</v>
+      </c>
+      <c r="I74">
+        <v>-0.02096496059605922</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1385614813608314</v>
+        <v>0.08609440235727465</v>
       </c>
       <c r="C75">
-        <v>-0.2360211385193122</v>
+        <v>0.2288471797538484</v>
       </c>
       <c r="D75">
-        <v>-0.02569237087741583</v>
+        <v>0.1011597800760372</v>
       </c>
       <c r="E75">
-        <v>-0.226846027459417</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1078972294926139</v>
+      </c>
+      <c r="F75">
+        <v>0.1377327560246203</v>
+      </c>
+      <c r="G75">
+        <v>-0.1110393287773916</v>
+      </c>
+      <c r="H75">
+        <v>0.2332959180708802</v>
+      </c>
+      <c r="I75">
+        <v>-0.05542921522028182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.06680893011033309</v>
+        <v>0.04842481455903368</v>
       </c>
       <c r="C76">
-        <v>-0.1574695886831471</v>
+        <v>0.1624618962538793</v>
       </c>
       <c r="D76">
-        <v>0.005309107388311815</v>
+        <v>0.06381255269758006</v>
       </c>
       <c r="E76">
-        <v>-0.1260741598549328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02502803120924519</v>
+      </c>
+      <c r="F76">
+        <v>0.08443282526056747</v>
+      </c>
+      <c r="G76">
+        <v>-0.008800595143469753</v>
+      </c>
+      <c r="H76">
+        <v>0.07046962040300231</v>
+      </c>
+      <c r="I76">
+        <v>-0.04848336524067164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.03395094165187283</v>
+        <v>0.02672618187955415</v>
       </c>
       <c r="C77">
-        <v>-0.08835148629514727</v>
+        <v>0.1578006323808785</v>
       </c>
       <c r="D77">
-        <v>0.301591345795041</v>
+        <v>-0.840069039452379</v>
       </c>
       <c r="E77">
-        <v>0.351431302387353</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.4901587331563743</v>
+      </c>
+      <c r="F77">
+        <v>0.07484937937175828</v>
+      </c>
+      <c r="G77">
+        <v>-0.02683376026492149</v>
+      </c>
+      <c r="H77">
+        <v>-0.05516212284301105</v>
+      </c>
+      <c r="I77">
+        <v>-0.05627157004221509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02154607515624193</v>
+        <v>0.02462019277631299</v>
       </c>
       <c r="C78">
-        <v>-0.0916588225753406</v>
+        <v>0.1055499520925076</v>
       </c>
       <c r="D78">
-        <v>0.1362507938629659</v>
+        <v>0.001077604473178056</v>
       </c>
       <c r="E78">
-        <v>0.06733293042764776</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.1031681438655446</v>
+      </c>
+      <c r="F78">
+        <v>-0.05631316127752597</v>
+      </c>
+      <c r="G78">
+        <v>0.02193921873205786</v>
+      </c>
+      <c r="H78">
+        <v>0.06008926805176561</v>
+      </c>
+      <c r="I78">
+        <v>-0.135898820559451</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.07346323743161652</v>
+        <v>0.05563622149459405</v>
       </c>
       <c r="C79">
-        <v>-0.4583097112757954</v>
+        <v>0.31789316294846</v>
       </c>
       <c r="D79">
-        <v>-0.587529762899292</v>
+        <v>0.3078771790644989</v>
       </c>
       <c r="E79">
-        <v>0.5790004796332143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.4640598029162863</v>
+      </c>
+      <c r="F79">
+        <v>-0.4939575082762381</v>
+      </c>
+      <c r="G79">
+        <v>0.04095533121189369</v>
+      </c>
+      <c r="H79">
+        <v>-0.4737404525414378</v>
+      </c>
+      <c r="I79">
+        <v>0.1744806153230757</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.006222904074186191</v>
+        <v>0.008161023079340364</v>
       </c>
       <c r="C80">
-        <v>-0.05366126011393199</v>
+        <v>0.05650638434655357</v>
       </c>
       <c r="D80">
-        <v>0.04098090960743796</v>
+        <v>0.005639253353569413</v>
       </c>
       <c r="E80">
-        <v>-0.04493321546031572</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06702343137323809</v>
+      </c>
+      <c r="F80">
+        <v>0.02026229090154599</v>
+      </c>
+      <c r="G80">
+        <v>0.0667894928098048</v>
+      </c>
+      <c r="H80">
+        <v>-0.01265990289524191</v>
+      </c>
+      <c r="I80">
+        <v>0.02948228174899966</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.05277631948501665</v>
+        <v>0.02772455037104643</v>
       </c>
       <c r="C81">
-        <v>-0.1518240496137021</v>
+        <v>0.1435617000733543</v>
       </c>
       <c r="D81">
-        <v>-0.04827464751619776</v>
+        <v>0.06240290431979642</v>
       </c>
       <c r="E81">
-        <v>-0.08129333676922024</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.0596448630653287</v>
+      </c>
+      <c r="F81">
+        <v>0.004999230248028651</v>
+      </c>
+      <c r="G81">
+        <v>-0.02031318241907023</v>
+      </c>
+      <c r="H81">
+        <v>0.05241366869711294</v>
+      </c>
+      <c r="I81">
+        <v>-0.07457016304321588</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1041712320305627</v>
+        <v>0.06498603237192729</v>
       </c>
       <c r="C82">
-        <v>-0.2196559818859383</v>
+        <v>0.190888325086788</v>
       </c>
       <c r="D82">
-        <v>-0.02351899470017156</v>
+        <v>0.09306473675496524</v>
       </c>
       <c r="E82">
-        <v>-0.1670601719209093</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.06933796637595904</v>
+      </c>
+      <c r="F82">
+        <v>0.08017257093599327</v>
+      </c>
+      <c r="G82">
+        <v>-0.009774849174985896</v>
+      </c>
+      <c r="H82">
+        <v>0.1090632272411591</v>
+      </c>
+      <c r="I82">
+        <v>-0.07431025135184642</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.004291889861699055</v>
+        <v>0.001411464405702074</v>
       </c>
       <c r="C83">
-        <v>-0.05751252380869357</v>
+        <v>0.02185458225115106</v>
       </c>
       <c r="D83">
-        <v>0.05462190270651943</v>
+        <v>-0.04178971450506588</v>
       </c>
       <c r="E83">
-        <v>0.03807571343372543</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.03672887588771948</v>
+      </c>
+      <c r="F83">
+        <v>-0.1371773325580778</v>
+      </c>
+      <c r="G83">
+        <v>0.9152121812824746</v>
+      </c>
+      <c r="H83">
+        <v>0.2475966977634736</v>
+      </c>
+      <c r="I83">
+        <v>0.002189281562890548</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.002472089527778424</v>
+        <v>-0.003089964767160724</v>
       </c>
       <c r="C84">
-        <v>-0.01593406937790401</v>
+        <v>0.03166949123892436</v>
       </c>
       <c r="D84">
-        <v>0.04289220398099968</v>
+        <v>-0.01006402884032325</v>
       </c>
       <c r="E84">
-        <v>0.02511711822086259</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.05131543802715757</v>
+      </c>
+      <c r="F84">
+        <v>-0.06008268671447894</v>
+      </c>
+      <c r="G84">
+        <v>-0.052359076208385</v>
+      </c>
+      <c r="H84">
+        <v>0.03478034755325101</v>
+      </c>
+      <c r="I84">
+        <v>-0.07921301211634806</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.06718451012394579</v>
+        <v>0.0431408306843663</v>
       </c>
       <c r="C85">
-        <v>-0.1920109341827538</v>
+        <v>0.1722292414921172</v>
       </c>
       <c r="D85">
-        <v>-0.06983768664515631</v>
+        <v>0.1133480338451129</v>
       </c>
       <c r="E85">
-        <v>-0.07430610916702983</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09539647004819853</v>
+      </c>
+      <c r="F85">
+        <v>0.02864686235517793</v>
+      </c>
+      <c r="G85">
+        <v>-0.01619473090536352</v>
+      </c>
+      <c r="H85">
+        <v>0.07822624983348558</v>
+      </c>
+      <c r="I85">
+        <v>-0.03223124603295851</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01769567663959232</v>
+        <v>0.0134399035701447</v>
       </c>
       <c r="C86">
-        <v>-0.02745540517979396</v>
+        <v>0.05967344481021689</v>
       </c>
       <c r="D86">
-        <v>0.09065382999520795</v>
+        <v>-0.04717410751863961</v>
       </c>
       <c r="E86">
-        <v>0.06063022654689795</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04309388849016979</v>
+      </c>
+      <c r="F86">
+        <v>-0.08536619114847208</v>
+      </c>
+      <c r="G86">
+        <v>-0.04029279934840639</v>
+      </c>
+      <c r="H86">
+        <v>0.0006483726055045195</v>
+      </c>
+      <c r="I86">
+        <v>-0.05923386405503256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02291920777368617</v>
+        <v>0.01665532483551757</v>
       </c>
       <c r="C87">
-        <v>-0.07826042631947251</v>
+        <v>0.1004439807096448</v>
       </c>
       <c r="D87">
-        <v>0.1489478577624277</v>
+        <v>-0.0685136862473263</v>
       </c>
       <c r="E87">
-        <v>0.06882714578509908</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.09827259497317282</v>
+      </c>
+      <c r="F87">
+        <v>-0.07267097154124083</v>
+      </c>
+      <c r="G87">
+        <v>-0.01693855846809901</v>
+      </c>
+      <c r="H87">
+        <v>0.04479674307225206</v>
+      </c>
+      <c r="I87">
+        <v>-0.05255062797785277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0290770299282159</v>
+        <v>0.03496836531458072</v>
       </c>
       <c r="C88">
-        <v>-0.07303769504133323</v>
+        <v>0.08251885829889281</v>
       </c>
       <c r="D88">
-        <v>-0.0003281645263006647</v>
+        <v>0.008266012120241596</v>
       </c>
       <c r="E88">
-        <v>-0.05919012292629819</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01621887950271058</v>
+      </c>
+      <c r="F88">
+        <v>0.02652459555005468</v>
+      </c>
+      <c r="G88">
+        <v>-0.005576713371139943</v>
+      </c>
+      <c r="H88">
+        <v>-0.01589489386199534</v>
+      </c>
+      <c r="I88">
+        <v>-0.01163999606286188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.4362636623940782</v>
+        <v>0.4099898882748472</v>
       </c>
       <c r="C89">
-        <v>0.1639693589367391</v>
+        <v>-0.1387059685157652</v>
       </c>
       <c r="D89">
-        <v>-0.03314788360429241</v>
+        <v>-0.001746961155634765</v>
       </c>
       <c r="E89">
-        <v>0.02811399237804305</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01399525843195471</v>
+      </c>
+      <c r="F89">
+        <v>-0.09592517032487559</v>
+      </c>
+      <c r="G89">
+        <v>0.08036605113030058</v>
+      </c>
+      <c r="H89">
+        <v>0.07758713158664059</v>
+      </c>
+      <c r="I89">
+        <v>-0.08691241225905229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.3163830387445902</v>
+        <v>0.3222737803915909</v>
       </c>
       <c r="C90">
-        <v>0.1148611884500994</v>
+        <v>-0.08658965073344219</v>
       </c>
       <c r="D90">
-        <v>0.06887522966816889</v>
+        <v>-0.03258634928063791</v>
       </c>
       <c r="E90">
-        <v>0.03814357327452633</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.04093762900906717</v>
+      </c>
+      <c r="F90">
+        <v>-0.01530657988227354</v>
+      </c>
+      <c r="G90">
+        <v>-0.01258710015897931</v>
+      </c>
+      <c r="H90">
+        <v>0.03692437846691558</v>
+      </c>
+      <c r="I90">
+        <v>0.008042682383357425</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.07436433716800042</v>
+        <v>0.05893480199432613</v>
       </c>
       <c r="C91">
-        <v>-0.2099851195474147</v>
+        <v>0.1732624692567246</v>
       </c>
       <c r="D91">
-        <v>-0.08235947428416091</v>
+        <v>0.07848395272648316</v>
       </c>
       <c r="E91">
-        <v>-0.03507938824425397</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1157163930740516</v>
+      </c>
+      <c r="F91">
+        <v>0.002066200892855856</v>
+      </c>
+      <c r="G91">
+        <v>0.02230753778200019</v>
+      </c>
+      <c r="H91">
+        <v>0.03497297560750476</v>
+      </c>
+      <c r="I91">
+        <v>-0.01711749598061089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.3349267302357748</v>
+        <v>0.3467624689852499</v>
       </c>
       <c r="C92">
-        <v>0.1353157667097383</v>
+        <v>-0.1219821322082266</v>
       </c>
       <c r="D92">
-        <v>-0.01866586609139617</v>
+        <v>-0.03267739844641598</v>
       </c>
       <c r="E92">
-        <v>0.102917832824045</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.01865892839080159</v>
+      </c>
+      <c r="F92">
+        <v>-0.07940752669606413</v>
+      </c>
+      <c r="G92">
+        <v>-0.09448454179859797</v>
+      </c>
+      <c r="H92">
+        <v>-0.0494596833826234</v>
+      </c>
+      <c r="I92">
+        <v>-0.0139925332474476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.3272505996114535</v>
+        <v>0.324309863810511</v>
       </c>
       <c r="C93">
-        <v>0.1279108127219228</v>
+        <v>-0.1159909275659492</v>
       </c>
       <c r="D93">
-        <v>-0.04342704602605467</v>
+        <v>0.01779695376342747</v>
       </c>
       <c r="E93">
-        <v>0.02582611347553279</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02012671325424042</v>
+      </c>
+      <c r="F93">
+        <v>-0.0387974923082962</v>
+      </c>
+      <c r="G93">
+        <v>-0.01645505592256817</v>
+      </c>
+      <c r="H93">
+        <v>-0.01443166862655771</v>
+      </c>
+      <c r="I93">
+        <v>-0.02918332861266695</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1509344387502959</v>
+        <v>0.1065082981735104</v>
       </c>
       <c r="C94">
-        <v>-0.2792071039514699</v>
+        <v>0.2581521061645818</v>
       </c>
       <c r="D94">
-        <v>-0.0701265644474254</v>
+        <v>0.1585796978364949</v>
       </c>
       <c r="E94">
-        <v>-0.3317888534633554</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.2077794893674351</v>
+      </c>
+      <c r="F94">
+        <v>0.1794567217652871</v>
+      </c>
+      <c r="G94">
+        <v>-0.07357495403275881</v>
+      </c>
+      <c r="H94">
+        <v>0.490372241925261</v>
+      </c>
+      <c r="I94">
+        <v>-0.01338469423978055</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.03438041141666875</v>
+        <v>0.03635622926715792</v>
       </c>
       <c r="C95">
-        <v>-0.0447665351926603</v>
+        <v>0.0956164636001198</v>
       </c>
       <c r="D95">
-        <v>0.06047381209860433</v>
+        <v>-0.04546525660237821</v>
       </c>
       <c r="E95">
-        <v>-0.07455104220831725</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07527978074306617</v>
+      </c>
+      <c r="F95">
+        <v>0.1094592968768781</v>
+      </c>
+      <c r="G95">
+        <v>-0.0328178702486668</v>
+      </c>
+      <c r="H95">
+        <v>-0.03838574022566368</v>
+      </c>
+      <c r="I95">
+        <v>-0.08252206427085806</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.004009304560241954</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0011339620088778</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.01837450269953252</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.001050174497041672</v>
+      </c>
+      <c r="F97">
+        <v>0.003422877885238545</v>
+      </c>
+      <c r="G97">
+        <v>-0.02143447508843527</v>
+      </c>
+      <c r="H97">
+        <v>-0.007999334119677126</v>
+      </c>
+      <c r="I97">
+        <v>-0.007462731959342137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.09449041234385368</v>
+        <v>0.1276819708055699</v>
       </c>
       <c r="C98">
-        <v>-0.1004410623542589</v>
+        <v>0.1462108368979594</v>
       </c>
       <c r="D98">
-        <v>0.1200809858257418</v>
+        <v>-0.01381972056687002</v>
       </c>
       <c r="E98">
-        <v>-0.08220113161166127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.138414928102355</v>
+      </c>
+      <c r="F98">
+        <v>0.2693837785602352</v>
+      </c>
+      <c r="G98">
+        <v>0.08183897579486339</v>
+      </c>
+      <c r="H98">
+        <v>-0.2081960797032519</v>
+      </c>
+      <c r="I98">
+        <v>0.3428793403671568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001870123321395757</v>
+        <v>0.004823886322705911</v>
       </c>
       <c r="C101">
-        <v>-0.02699308901038486</v>
+        <v>0.05720626038629337</v>
       </c>
       <c r="D101">
-        <v>0.07035141985229452</v>
+        <v>-0.02950375137813877</v>
       </c>
       <c r="E101">
-        <v>0.02061975918978178</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1083477323052812</v>
+      </c>
+      <c r="F101">
+        <v>-0.01376695017006835</v>
+      </c>
+      <c r="G101">
+        <v>0.04558222188220749</v>
+      </c>
+      <c r="H101">
+        <v>-0.117880876174804</v>
+      </c>
+      <c r="I101">
+        <v>-0.1739682597077448</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.04430603124000149</v>
+        <v>0.01714402801281496</v>
       </c>
       <c r="C102">
-        <v>-0.1220228747020041</v>
+        <v>0.07911989205489413</v>
       </c>
       <c r="D102">
-        <v>0.001171839202118872</v>
+        <v>0.04156553156551477</v>
       </c>
       <c r="E102">
-        <v>-0.08614549870769184</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0471963220033392</v>
+      </c>
+      <c r="F102">
+        <v>0.0263217864510869</v>
+      </c>
+      <c r="G102">
+        <v>0.01112092208827314</v>
+      </c>
+      <c r="H102">
+        <v>0.06089172686947811</v>
+      </c>
+      <c r="I102">
+        <v>-0.01823411791309429</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
